--- a/frontend/src/assets/reports/Sample Data Dump template final.xlsx
+++ b/frontend/src/assets/reports/Sample Data Dump template final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamed/Projects/upwork-demo/frontend/src/assets/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1D9677-3AF9-41A4-93DF-22E4FDF34CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61151C-E671-3742-8853-88C816BB594F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="1356" windowWidth="39804" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1360" windowWidth="33600" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -1161,16 +1161,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" customWidth="1"/>
@@ -1179,7 +1179,7 @@
     <col min="27" max="32" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="AF15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>234</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>235</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>237</v>
       </c>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>244</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>249</v>
       </c>
